--- a/exercise2/Operations.xlsx
+++ b/exercise2/Operations.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Bias</t>
   </si>
@@ -34,6 +36,30 @@
   </si>
   <si>
     <t>Global Bias Matrix</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Input with padding</t>
+  </si>
+  <si>
+    <t>o = ((i-k+2p)/s)+1</t>
+  </si>
+  <si>
+    <t>I = o(s-1) + k - 2p</t>
   </si>
 </sst>
 </file>
@@ -184,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -196,6 +222,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -205,11 +236,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT13" sqref="AT13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AZ4" sqref="AZ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,59 +538,63 @@
     <col min="33" max="34" width="4" customWidth="1"/>
     <col min="35" max="41" width="2" customWidth="1"/>
     <col min="42" max="43" width="3" customWidth="1"/>
+    <col min="46" max="46" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="2" customWidth="1"/>
+    <col min="49" max="50" width="3" customWidth="1"/>
+    <col min="52" max="52" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="S1" s="12" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="S1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AF1" s="13" t="s">
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AF1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -671,8 +703,27 @@
       <c r="AQ2" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU2">
+        <v>2</v>
+      </c>
+      <c r="AV2">
+        <v>3</v>
+      </c>
+      <c r="AW2">
+        <v>10</v>
+      </c>
+      <c r="AX2">
+        <v>14</v>
+      </c>
+      <c r="AZ2">
+        <f>(AW2-AW4+2*AW5)/AW3+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -738,10 +789,10 @@
       <c r="AF3" s="1">
         <v>1</v>
       </c>
-      <c r="AG3" s="15">
+      <c r="AG3" s="12">
         <v>0.5</v>
       </c>
-      <c r="AH3" s="16">
+      <c r="AH3" s="13">
         <v>0.5</v>
       </c>
       <c r="AI3" s="3">
@@ -771,8 +822,20 @@
       <c r="AQ3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW3">
+        <v>3</v>
+      </c>
+      <c r="AX3">
+        <v>2</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -808,10 +871,10 @@
       <c r="AF4" s="1">
         <v>2</v>
       </c>
-      <c r="AG4" s="17">
+      <c r="AG4" s="14">
         <v>0.5</v>
       </c>
-      <c r="AH4" s="18">
+      <c r="AH4" s="15">
         <v>0.5</v>
       </c>
       <c r="AI4" s="6">
@@ -841,8 +904,26 @@
       <c r="AQ4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU4">
+        <v>4</v>
+      </c>
+      <c r="AV4">
+        <v>3</v>
+      </c>
+      <c r="AW4">
+        <v>5</v>
+      </c>
+      <c r="AX4">
+        <v>8</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -902,8 +983,17 @@
       <c r="AQ5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW5">
+        <v>2</v>
+      </c>
+      <c r="AX5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -913,11 +1003,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="O6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="O6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
       <c r="S6" s="1">
         <v>4</v>
       </c>
@@ -968,8 +1058,23 @@
       <c r="AQ6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU6">
+        <v>2</v>
+      </c>
+      <c r="AV6">
+        <v>4</v>
+      </c>
+      <c r="AW6">
+        <v>4</v>
+      </c>
+      <c r="AX6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1036,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1049,10 +1154,10 @@
       <c r="O8" s="1">
         <v>1</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="11">
         <v>0.5</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="11">
         <v>0.5</v>
       </c>
       <c r="S8" s="1">
@@ -1105,8 +1210,23 @@
       <c r="AQ8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU8">
+        <v>2</v>
+      </c>
+      <c r="AV8">
+        <v>3</v>
+      </c>
+      <c r="AW8">
+        <v>10</v>
+      </c>
+      <c r="AX8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1119,10 +1239,10 @@
       <c r="O9" s="1">
         <v>2</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="11">
         <v>0.5</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="11">
         <v>0.5</v>
       </c>
       <c r="S9" s="1">
@@ -1175,8 +1295,17 @@
       <c r="AQ9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1236,8 +1365,23 @@
       <c r="AQ10" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU10">
+        <v>4</v>
+      </c>
+      <c r="AV10">
+        <v>3</v>
+      </c>
+      <c r="AW10">
+        <v>5</v>
+      </c>
+      <c r="AX10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1297,8 +1441,17 @@
       <c r="AQ11" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW11">
+        <v>2</v>
+      </c>
+      <c r="AX11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1358,8 +1511,23 @@
       <c r="AQ12" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AT12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU12">
+        <v>2</v>
+      </c>
+      <c r="AV12">
+        <v>4</v>
+      </c>
+      <c r="AW12">
+        <v>10</v>
+      </c>
+      <c r="AX12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1420,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1473,4 +1641,1038 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BB18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BB7" sqref="BB7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="23" width="3" customWidth="1"/>
+    <col min="25" max="33" width="2" customWidth="1"/>
+    <col min="35" max="35" width="3" customWidth="1"/>
+    <col min="36" max="44" width="2" customWidth="1"/>
+    <col min="45" max="49" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="Y1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AI1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>16</v>
+      </c>
+      <c r="R2" s="1">
+        <v>17</v>
+      </c>
+      <c r="S2" s="1">
+        <v>18</v>
+      </c>
+      <c r="T2" s="1">
+        <v>19</v>
+      </c>
+      <c r="U2" s="1">
+        <v>20</v>
+      </c>
+      <c r="V2" s="1">
+        <v>21</v>
+      </c>
+      <c r="W2" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>11</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>12</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>13</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>14</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>40</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="4"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="7"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="7"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="7"/>
+      <c r="BB6">
+        <f>14*22</f>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="7"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="7"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="7"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="7"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="7"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="10"/>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AI1:AW1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/exercise2/Operations.xlsx
+++ b/exercise2/Operations.xlsx
@@ -521,7 +521,7 @@
   <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AZ4" sqref="AZ4"/>
+      <selection activeCell="AZ11" sqref="AZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
